--- a/IBK/excel/RA_BL_result_0712.xlsx
+++ b/IBK/excel/RA_BL_result_0712.xlsx
@@ -56,10 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SHIPPING LINE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISSUING BANK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2971,6 +2967,10 @@
   </si>
   <si>
     <t>XIANG XUE LAN V.5122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIPMENT DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3391,7 +3391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3402,8 +3402,8 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3439,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
+        <v>799</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>6</v>
@@ -3447,1745 +3447,1745 @@
     </row>
     <row r="2" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>661</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>667</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>669</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>675</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>676</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>682</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>684</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>687</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>692</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>693</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>698</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>700</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>701</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="15" t="s">
         <v>708</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="9" t="s">
         <v>709</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>714</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>715</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>717</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>723</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>730</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>736</v>
-      </c>
       <c r="E13" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>732</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>743</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>745</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>751</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>753</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="D16" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>754</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>755</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>756</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>758</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>759</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="H17" s="9" t="s">
         <v>761</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>763</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>765</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>766</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>768</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>769</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>771</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
         <v>774</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>775</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="17" t="s">
         <v>776</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="H19" s="9" t="s">
         <v>777</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>779</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>780</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>781</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>783</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>786</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>787</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>789</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="9" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>792</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>794</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>797</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>798</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>516</v>
-      </c>
       <c r="G23" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G24" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>567</v>
-      </c>
       <c r="H25" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="G26" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>649</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>652</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>573</v>
-      </c>
       <c r="H32" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>575</v>
-      </c>
       <c r="H33" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>578</v>
-      </c>
       <c r="H34" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>582</v>
-      </c>
       <c r="H35" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>586</v>
-      </c>
       <c r="H37" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>586</v>
-      </c>
       <c r="H38" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>590</v>
-      </c>
       <c r="H39" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>592</v>
-      </c>
       <c r="H40" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>594</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G41" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>484</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="E42" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>532</v>
-      </c>
       <c r="G42" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>567</v>
-      </c>
       <c r="H43" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="G46" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>573</v>
-      </c>
       <c r="H46" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="G47" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="E48" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="G48" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>603</v>
-      </c>
       <c r="H49" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>605</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E51" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>536</v>
-      </c>
       <c r="G51" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>610</v>
-      </c>
       <c r="H52" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G54" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>656</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G55" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="H55" s="12" t="s">
         <v>496</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G56" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="G57" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>616</v>
-      </c>
       <c r="H57" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="F59" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>620</v>
-      </c>
       <c r="H59" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G60" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="H60" s="12" t="s">
         <v>496</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="G61" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="H61" s="12" t="s">
         <v>501</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="G62" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="H62" s="12" t="s">
         <v>503</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>625</v>
-      </c>
       <c r="E63" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="G63" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="G64" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>629</v>
-      </c>
       <c r="G65" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>631</v>
-      </c>
       <c r="H66" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="G67" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G69" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="H69" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D70" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="G70" s="12"/>
       <c r="H70" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="G71" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>636</v>
-      </c>
       <c r="H71" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5228,999 +5228,999 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6263,31 +6263,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>1</v>
@@ -6296,773 +6296,773 @@
         <v>3</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="G5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>224</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>229</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="I20" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="189" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="H29" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="E30" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="E33" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="H33" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="81" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="81" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="I37" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="I38" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="I39" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>362</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="162" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -7105,13 +7105,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
@@ -7120,16 +7120,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>1</v>
@@ -7143,190 +7143,190 @@
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="G18" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
